--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
@@ -439,107 +439,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 22 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B2" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F2" t="str">
         <v>Sanju Samson †</v>
       </c>
       <c r="G2" t="str">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H2" t="str">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v>138.46</v>
+        <v>150.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Sep 22 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C3" t="str">
-        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+        <v>Royals won by 16 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F3" t="str">
         <v>Sanju Samson †</v>
       </c>
       <c r="G3" t="str">
+        <v>74</v>
+      </c>
+      <c r="H3" t="str">
+        <v>32</v>
+      </c>
+      <c r="I3" t="str">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
         <v>9</v>
       </c>
-      <c r="H3" t="str">
-        <v>6</v>
-      </c>
-      <c r="I3" t="str">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>1</v>
-      </c>
       <c r="K3" t="str">
-        <v>150.00</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Sep 22 2020</v>
+        <v xml:space="preserve"> Oct 22 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Royals won by 16 runs</v>
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E4" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F4" t="str">
         <v>Sanju Samson †</v>
       </c>
       <c r="G4" t="str">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H4" t="str">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" t="str">
+        <v>3</v>
+      </c>
+      <c r="J4" t="str">
         <v>1</v>
       </c>
-      <c r="J4" t="str">
-        <v>9</v>
-      </c>
       <c r="K4" t="str">
-        <v>231.25</v>
+        <v>138.46</v>
       </c>
     </row>
   </sheetData>
